--- a/Base/Teams/Lions/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Lions/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>139</v>
+      </c>
+      <c r="C2">
         <v>104</v>
       </c>
-      <c r="C2">
-        <v>77</v>
-      </c>
       <c r="D2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Lions/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Lions/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C3">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Lions/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Lions/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Base/Teams/Lions/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Lions/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Lions/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Lions/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>1</v>
